--- a/export_abstract2.xlsx
+++ b/export_abstract2.xlsx
@@ -1,24 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\fas2020\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480"/>
   </bookViews>
   <sheets>
-    <sheet name="Abstract of Quotations" sheetId="1" r:id="rId4"/>
+    <sheet name="Abstract of Quotations" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Abstract of Quotations'!$A$1:$I$37</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Abstract of Quotations'!$9:$11</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Abstract of Quotations'!$A$1:$I$37</definedName>
   </definedNames>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
   <si>
     <t>Republic of the Philippines</t>
   </si>
@@ -136,25 +141,18 @@
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="11"/>
-        <u val="single"/>
       </rPr>
-      <t xml:space="preserve">company ID</t>
+      <t>company ID</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="11"/>
-        <u val="none"/>
       </rPr>
       <t xml:space="preserve"> bearing the pictures/signature of  the representative </t>
     </r>
@@ -168,25 +166,18 @@
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="13"/>
-        <u val="single"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="13"/>
-        <u val="none"/>
       </rPr>
       <t xml:space="preserve">which  has the lowest calculated and responsive bids </t>
     </r>
@@ -198,19 +189,19 @@
     <t>DR. CARINA S. CRUZ</t>
   </si>
   <si>
+    <t>ATTY. JORDAN V. NADAL</t>
+  </si>
+  <si>
     <t>DON AYER A. ABRAZALDO</t>
   </si>
   <si>
     <t>BAC Chairman</t>
   </si>
   <si>
+    <t>BAC Vice Chairman</t>
+  </si>
+  <si>
     <t>BAC Member</t>
-  </si>
-  <si>
-    <t>ATTY. JORDAN V. NADAL</t>
-  </si>
-  <si>
-    <t>BAC Vice Chairman</t>
   </si>
   <si>
     <t>GILBERTO L. TUMAMAC</t>
@@ -222,165 +213,116 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="#,##0.00;[Red]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="0.00;[Red]0.00"/>
-    <numFmt numFmtId="167" formatCode="₱#,##0.00_-"/>
+    <numFmt numFmtId="167" formatCode="\₱#,##0.00_-"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Cambria"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Cambria"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Cambria"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="13"/>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFff0000"/>
+      <u/>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
       <name val="Cambria"/>
     </font>
   </fonts>
@@ -389,10 +331,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="none"/>
@@ -411,17 +350,27 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFd9edf7"/>
+        <fgColor rgb="FFD9EDF7"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
-    <border/>
+  <borders count="17">
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -433,19 +382,28 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -454,11 +412,18 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -467,9 +432,13 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -478,495 +447,518 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF6a6d6d"/>
+        <color rgb="FF6A6D6D"/>
       </left>
       <right style="medium">
-        <color rgb="FF6a6d6d"/>
+        <color rgb="FF6A6D6D"/>
       </right>
       <top style="medium">
-        <color rgb="FF6a6d6d"/>
+        <color rgb="FF6A6D6D"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF6a6d6d"/>
+        <color rgb="FF6A6D6D"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="139">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="164" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="164" fillId="2" borderId="5" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="4" fillId="2" borderId="5" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="4" fillId="3" borderId="5" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="4" fillId="3" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="165" fillId="2" borderId="5" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="3" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="165" fillId="2" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="165" fillId="2" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="11" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false" indent="2"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="4" fillId="3" borderId="5" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="164" fillId="2" borderId="5" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="166" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="166" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="4" fillId="3" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="165" fillId="3" borderId="10" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="4" fillId="3" borderId="11" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="4" fillId="3" borderId="10" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="49" fillId="3" borderId="8" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="49" fillId="2" borderId="5" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="49" fillId="2" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="49" fillId="2" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="49" fillId="2" borderId="8" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="49" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="14" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="14" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="166" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="166" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="167" fillId="2" borderId="8" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="5" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="4" fillId="2" borderId="14" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="3" fillId="2" borderId="14" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="4" fillId="3" borderId="14" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="4" fillId="5" borderId="14" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="15" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -982,7 +974,7 @@
     <xdr:ext cx="771525" cy="733425"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Picture 19" descr=""/>
+        <xdr:cNvPr id="2" name="Picture 19"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -994,7 +986,10 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm rot="0"/>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -1002,36 +997,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:colOff>537881</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2076450" cy="895350"/>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1208901</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>134967</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 2" descr=""/>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm rot="0"/>
+        <a:xfrm>
+          <a:off x="9244852" y="0"/>
+          <a:ext cx="2071755" cy="896967"/>
+        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1078,7 +1087,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1113,7 +1122,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1321,84 +1330,83 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="true" defaultRowHeight="15" defaultColWidth="8.85546875" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" customWidth="true" style="1"/>
-    <col min="2" max="2" width="39.5703125" customWidth="true" style="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="true" style="11"/>
-    <col min="4" max="4" width="6" customWidth="true" style="11"/>
-    <col min="5" max="5" width="5.85546875" customWidth="true" style="11"/>
-    <col min="6" max="6" width="43" customWidth="true" style="62"/>
-    <col min="7" max="7" width="18.5703125" customWidth="true" style="62"/>
-    <col min="8" max="8" width="21" customWidth="true" style="62"/>
-    <col min="9" max="9" width="18.28515625" customWidth="true" style="62"/>
-    <col min="10" max="10" width="17.28515625" customWidth="true" style="11"/>
-    <col min="11" max="11" width="15.7109375" customWidth="true" style="11"/>
-    <col min="12" max="12" width="15" customWidth="true" style="11"/>
-    <col min="13" max="13" width="15.7109375" customWidth="true" style="11"/>
+    <col min="1" max="1" width="5.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" style="11" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43" style="62" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" style="62" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21" style="62" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" style="62" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" style="11" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" style="11" customWidth="1"/>
+    <col min="12" max="12" width="15" style="11" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" style="11" customWidth="1"/>
     <col min="14" max="14" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" customHeight="1" ht="15">
-      <c r="B1" s="111" t="s">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="129"/>
-    </row>
-    <row r="2" spans="1:17" customHeight="1" ht="15">
-      <c r="B2" s="112" t="s">
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-    </row>
-    <row r="3" spans="1:17" customHeight="1" ht="15">
-      <c r="B3" s="113" t="s">
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="132"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:17" customHeight="1" ht="15">
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1412,22 +1420,22 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="1:17" customHeight="1" ht="11.25">
+    <row r="5" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
-      <c r="K5" s="114"/>
-      <c r="L5" s="114"/>
-      <c r="M5" s="114"/>
-    </row>
-    <row r="6" spans="1:17" customHeight="1" ht="18.75">
+      <c r="B5" s="125"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="125"/>
+      <c r="K5" s="125"/>
+      <c r="L5" s="125"/>
+      <c r="M5" s="125"/>
+    </row>
+    <row r="6" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
         <v>3</v>
@@ -1436,14 +1444,14 @@
       <c r="D6" s="2"/>
       <c r="E6" s="100"/>
       <c r="F6" s="100"/>
-      <c r="G6" s="115" t="s">
+      <c r="G6" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="116"/>
-      <c r="I6" s="125"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="119"/>
       <c r="J6" s="99"/>
     </row>
-    <row r="7" spans="1:17" customHeight="1" ht="15">
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="7" t="s">
         <v>5</v>
@@ -1452,23 +1460,21 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="117" t="s">
+      <c r="G7" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="118" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="126"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="122"/>
       <c r="J7" s="99"/>
     </row>
-    <row r="8" spans="1:17" customHeight="1" ht="15">
-      <c r="A8" s="119" t="s">
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="119"/>
-      <c r="C8" s="119"/>
-      <c r="D8" s="119"/>
-      <c r="E8" s="119"/>
+      <c r="B8" s="126"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="126"/>
       <c r="F8" s="8"/>
       <c r="G8" s="9" t="s">
         <v>8</v>
@@ -1478,27 +1484,26 @@
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
     </row>
-    <row r="9" spans="1:17" customHeight="1" ht="15" s="17" customFormat="1">
+    <row r="9" spans="1:14" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
       <c r="D9" s="15"/>
       <c r="E9" s="16"/>
-      <c r="F9" s="134" t="s">
+      <c r="F9" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="105" t="s">
+      <c r="G9" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="105" t="s">
+      <c r="H9" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="105" t="s">
+      <c r="I9" s="129" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="17"/>
-    </row>
-    <row r="10" spans="1:17" customHeight="1" ht="15" s="17" customFormat="1">
+    </row>
+    <row r="10" spans="1:14" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>13</v>
       </c>
@@ -1514,52 +1519,52 @@
       <c r="E10" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="106"/>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-    </row>
-    <row r="11" spans="1:17" customHeight="1" ht="40.15" s="17" customFormat="1">
+      <c r="F10" s="128"/>
+      <c r="G10" s="128"/>
+      <c r="H10" s="128"/>
+      <c r="I10" s="128"/>
+    </row>
+    <row r="11" spans="1:14" s="17" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="71"/>
       <c r="B11" s="72"/>
       <c r="C11" s="73"/>
       <c r="D11" s="74"/>
       <c r="E11" s="21"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="106"/>
-    </row>
-    <row r="12" spans="1:17" customHeight="1" ht="19" s="17" customFormat="1">
-      <c r="A12" s="101">
+      <c r="F11" s="128"/>
+      <c r="G11" s="130"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="128"/>
+    </row>
+    <row r="12" spans="1:14" s="17" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="102">
         <v>1</v>
       </c>
-      <c r="B12" s="102" t="s">
+      <c r="B12" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="133">
+      <c r="C12" s="101">
         <v>540</v>
       </c>
-      <c r="D12" s="136">
+      <c r="D12" s="104">
         <v>1264</v>
       </c>
-      <c r="E12" s="135" t="s">
+      <c r="E12" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="138" t="s">
+      <c r="F12" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="137" t="s">
+      <c r="G12" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="137" t="s">
+      <c r="H12" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="137" t="s">
+      <c r="I12" s="113" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:17" customHeight="1" ht="15.95" s="17" customFormat="1">
+    <row r="13" spans="1:14" s="17" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22"/>
       <c r="B13" s="23" t="s">
         <v>24</v>
@@ -1572,7 +1577,7 @@
       <c r="H13" s="84"/>
       <c r="I13" s="84"/>
     </row>
-    <row r="14" spans="1:17" customHeight="1" ht="36" s="17" customFormat="1">
+    <row r="14" spans="1:14" s="17" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22"/>
       <c r="B14" s="70" t="s">
         <v>25</v>
@@ -1584,13 +1589,12 @@
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
       <c r="I14" s="89"/>
-      <c r="M14" s="124"/>
-      <c r="N14" s="124"/>
-      <c r="Q14" s="17"/>
-    </row>
-    <row r="15" spans="1:17" customHeight="1" ht="36" s="17" customFormat="1">
+      <c r="M14" s="116"/>
+      <c r="N14" s="116"/>
+    </row>
+    <row r="15" spans="1:14" s="17" customFormat="1" ht="36" x14ac:dyDescent="0.25">
       <c r="A15" s="22"/>
-      <c r="B15" s="131" t="s">
+      <c r="B15" s="114" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="24"/>
@@ -1601,9 +1605,9 @@
       <c r="H15" s="27"/>
       <c r="I15" s="89"/>
     </row>
-    <row r="16" spans="1:17" customHeight="1" ht="54" s="17" customFormat="1">
+    <row r="16" spans="1:14" s="17" customFormat="1" ht="54" x14ac:dyDescent="0.25">
       <c r="A16" s="22"/>
-      <c r="B16" s="132" t="s">
+      <c r="B16" s="115" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="28"/>
@@ -1614,7 +1618,7 @@
       <c r="H16" s="67"/>
       <c r="I16" s="85"/>
     </row>
-    <row r="17" spans="1:17" customHeight="1" ht="15" s="17" customFormat="1">
+    <row r="17" spans="1:13" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="30"/>
       <c r="B17" s="31" t="s">
         <v>28</v>
@@ -1627,9 +1631,9 @@
       <c r="H17" s="34"/>
       <c r="I17" s="86"/>
     </row>
-    <row r="18" spans="1:17" customHeight="1" ht="15" s="17" customFormat="1">
+    <row r="18" spans="1:13" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="35"/>
-      <c r="B18" s="108" t="s">
+      <c r="B18" s="134" t="s">
         <v>29</v>
       </c>
       <c r="C18" s="36"/>
@@ -1640,9 +1644,9 @@
       <c r="H18" s="38"/>
       <c r="I18" s="87"/>
     </row>
-    <row r="19" spans="1:17" customHeight="1" ht="15" s="17" customFormat="1">
-      <c r="A19" s="103"/>
-      <c r="B19" s="108"/>
+    <row r="19" spans="1:13" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="106"/>
+      <c r="B19" s="134"/>
       <c r="C19" s="36"/>
       <c r="D19" s="39"/>
       <c r="E19" s="39"/>
@@ -1651,9 +1655,9 @@
       <c r="H19" s="38"/>
       <c r="I19" s="87"/>
     </row>
-    <row r="20" spans="1:17" customHeight="1" ht="27" s="17" customFormat="1">
+    <row r="20" spans="1:13" s="17" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="35"/>
-      <c r="B20" s="109"/>
+      <c r="B20" s="135"/>
       <c r="C20" s="36"/>
       <c r="D20" s="39"/>
       <c r="E20" s="39"/>
@@ -1662,7 +1666,7 @@
       <c r="H20" s="40"/>
       <c r="I20" s="88"/>
     </row>
-    <row r="21" spans="1:17" customHeight="1" ht="114" s="17" customFormat="1">
+    <row r="21" spans="1:13" s="17" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="35"/>
       <c r="B21" s="63" t="s">
         <v>30</v>
@@ -1683,7 +1687,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:17" customHeight="1" ht="54" s="95" customFormat="1">
+    <row r="22" spans="1:13" s="95" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="91"/>
       <c r="B22" s="92" t="s">
         <v>32</v>
@@ -1697,14 +1701,10 @@
       <c r="G22" s="90">
         <v>237786</v>
       </c>
-      <c r="H22" s="90">
-        <v>1</v>
-      </c>
-      <c r="I22" s="90">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" customHeight="1" ht="18" s="17" customFormat="1">
+      <c r="H22" s="90"/>
+      <c r="I22" s="90"/>
+    </row>
+    <row r="23" spans="1:13" s="17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="35"/>
       <c r="B23" s="64" t="s">
         <v>34</v>
@@ -1717,7 +1717,7 @@
       <c r="H23" s="47"/>
       <c r="I23" s="47"/>
     </row>
-    <row r="24" spans="1:17" customHeight="1" ht="71.25" s="17" customFormat="1">
+    <row r="24" spans="1:13" s="17" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="35"/>
       <c r="B24" s="65" t="s">
         <v>35</v>
@@ -1738,7 +1738,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:17" customHeight="1" ht="28.5" s="17" customFormat="1">
+    <row r="25" spans="1:13" s="17" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="48"/>
       <c r="B25" s="66" t="s">
         <v>36</v>
@@ -1759,7 +1759,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:17" customHeight="1" ht="15" s="17" customFormat="1">
+    <row r="26" spans="1:13" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="49"/>
       <c r="B26" s="50" t="s">
         <v>37</v>
@@ -1776,7 +1776,7 @@
       <c r="L26" s="52"/>
       <c r="M26" s="54"/>
     </row>
-    <row r="27" spans="1:17" customHeight="1" ht="17.25" s="17" customFormat="1">
+    <row r="27" spans="1:13" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="49"/>
       <c r="B27" s="55" t="s">
         <v>38</v>
@@ -1793,7 +1793,7 @@
       <c r="L27" s="52"/>
       <c r="M27" s="52"/>
     </row>
-    <row r="28" spans="1:17" customHeight="1" ht="9" s="17" customFormat="1">
+    <row r="28" spans="1:13" s="17" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="49"/>
       <c r="B28" s="57"/>
       <c r="C28" s="58"/>
@@ -1808,7 +1808,7 @@
       <c r="L28" s="59"/>
       <c r="M28" s="59"/>
     </row>
-    <row r="29" spans="1:17" customHeight="1" ht="15" s="17" customFormat="1">
+    <row r="29" spans="1:13" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="49"/>
       <c r="B29" s="61" t="s">
         <v>39</v>
@@ -1825,34 +1825,34 @@
       <c r="L29" s="59"/>
       <c r="M29" s="59"/>
     </row>
-    <row r="31" spans="1:17" customHeight="1" ht="15" s="69" customFormat="1">
+    <row r="31" spans="1:13" s="69" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="G31" s="122" t="s">
+      <c r="G31" s="136" t="s">
+        <v>42</v>
+      </c>
+      <c r="H31" s="136"/>
+      <c r="I31" s="137"/>
+    </row>
+    <row r="32" spans="1:13" s="69" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="76" t="s">
+        <v>43</v>
+      </c>
+      <c r="G32" s="138" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" s="138"/>
+      <c r="I32" s="137"/>
+    </row>
+    <row r="33" spans="1:13" s="69" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="77"/>
+      <c r="C33" s="123" t="s">
         <v>41</v>
       </c>
-      <c r="H31" s="122"/>
-      <c r="I31" s="121"/>
-    </row>
-    <row r="32" spans="1:17" customHeight="1" ht="15" s="69" customFormat="1">
-      <c r="B32" s="76" t="s">
-        <v>42</v>
-      </c>
-      <c r="G32" s="123" t="s">
-        <v>43</v>
-      </c>
-      <c r="H32" s="123"/>
-      <c r="I32" s="121"/>
-    </row>
-    <row r="33" spans="1:17" customHeight="1" ht="15" s="69" customFormat="1">
-      <c r="B33" s="77"/>
-      <c r="C33" s="120" t="s">
-        <v>44</v>
-      </c>
-      <c r="D33" s="120"/>
-      <c r="E33" s="120"/>
-      <c r="F33" s="120"/>
+      <c r="D33" s="123"/>
+      <c r="E33" s="123"/>
+      <c r="F33" s="123"/>
       <c r="G33" s="80"/>
       <c r="H33" s="80"/>
       <c r="I33" s="79"/>
@@ -1860,15 +1860,15 @@
       <c r="K33" s="79"/>
       <c r="L33" s="79"/>
     </row>
-    <row r="34" spans="1:17" customHeight="1" ht="15" s="69" customFormat="1">
-      <c r="A34" s="104"/>
+    <row r="34" spans="1:13" s="69" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="107"/>
       <c r="B34" s="77"/>
-      <c r="C34" s="110" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" s="110"/>
-      <c r="E34" s="110"/>
-      <c r="F34" s="110"/>
+      <c r="C34" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="124"/>
+      <c r="E34" s="124"/>
+      <c r="F34" s="124"/>
       <c r="G34" s="78"/>
       <c r="H34" s="78"/>
       <c r="I34" s="78"/>
@@ -1877,42 +1877,41 @@
       <c r="L34" s="78"/>
       <c r="M34" s="78"/>
     </row>
-    <row r="35" spans="1:17" customHeight="1" ht="15" s="69" customFormat="1">
-      <c r="A35" s="104"/>
+    <row r="35" spans="1:13" s="69" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="107"/>
       <c r="B35" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="127"/>
-      <c r="E35" s="127"/>
-      <c r="F35" s="127"/>
-      <c r="G35" s="120" t="s">
+      <c r="D35" s="108"/>
+      <c r="E35" s="108"/>
+      <c r="F35" s="108"/>
+      <c r="G35" s="123" t="s">
         <v>47</v>
       </c>
-      <c r="H35" s="120"/>
-      <c r="I35" s="120"/>
+      <c r="H35" s="123"/>
+      <c r="I35" s="123"/>
       <c r="J35" s="96"/>
       <c r="K35" s="96"/>
       <c r="L35" s="96"/>
       <c r="M35" s="81"/>
     </row>
-    <row r="36" spans="1:17" customHeight="1" ht="15" s="69" customFormat="1">
-      <c r="A36" s="104"/>
+    <row r="36" spans="1:13" s="69" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="98" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="128"/>
-      <c r="D36" s="128"/>
-      <c r="G36" s="110" t="s">
-        <v>43</v>
-      </c>
-      <c r="H36" s="110"/>
-      <c r="I36" s="110"/>
+        <v>45</v>
+      </c>
+      <c r="C36" s="109"/>
+      <c r="D36" s="109"/>
+      <c r="G36" s="124" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" s="124"/>
+      <c r="I36" s="124"/>
       <c r="J36" s="81"/>
       <c r="K36" s="81"/>
       <c r="L36" s="81"/>
       <c r="M36" s="81"/>
     </row>
-    <row r="37" spans="1:17" customHeight="1" ht="15" s="69" customFormat="1">
+    <row r="37" spans="1:13" s="69" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C37" s="82"/>
       <c r="D37" s="82"/>
       <c r="E37" s="82"/>
@@ -1926,40 +1925,30 @@
       <c r="M37" s="82"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="19">
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="H9:H11"/>
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="C33:F33"/>
     <mergeCell ref="C34:F34"/>
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="G9:G11"/>
     <mergeCell ref="G31:I31"/>
     <mergeCell ref="G32:I32"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="Q14:R14"/>
   </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.25" right="0.25" top="0.12" bottom="0.12" header="0.12" footer="0.12"/>
-  <pageSetup paperSize="9" orientation="landscape" scale="84" fitToHeight="0" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>